--- a/database/users/profile.xlsx
+++ b/database/users/profile.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1156</v>
+        <v>1201</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/database/users/profile.xlsx
+++ b/database/users/profile.xlsx
@@ -463,20 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Account 3463</t>
+          <t>Account 1327</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
